--- a/artfynd/A 41607-2020.xlsx
+++ b/artfynd/A 41607-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97650299</v>
+        <v>97650292</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>5135</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>105930</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>403880.3826524244</v>
+        <v>403705.050704394</v>
       </c>
       <c r="R2" t="n">
-        <v>6794050.283030285</v>
+        <v>6794737.908215457</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97650294</v>
+        <v>97650293</v>
       </c>
       <c r="B3" t="n">
-        <v>90676</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>403863.9880530759</v>
+        <v>403710.6419448711</v>
       </c>
       <c r="R3" t="n">
-        <v>6794102.706117956</v>
+        <v>6794695.894706693</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97650292</v>
+        <v>97650291</v>
       </c>
       <c r="B4" t="n">
-        <v>5135</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>403705.050704394</v>
+        <v>403714.9324539425</v>
       </c>
       <c r="R4" t="n">
-        <v>6794737.908215457</v>
+        <v>6794746.778207967</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97650293</v>
+        <v>97650299</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>403710.6419448711</v>
+        <v>403880.3826524244</v>
       </c>
       <c r="R5" t="n">
-        <v>6794695.894706693</v>
+        <v>6794050.283030285</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97650291</v>
+        <v>97650294</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>90676</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>5966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>403714.9324539425</v>
+        <v>403863.9880530759</v>
       </c>
       <c r="R6" t="n">
-        <v>6794746.778207967</v>
+        <v>6794102.706117956</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97650301</v>
+        <v>97650298</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,25 +1394,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>403960.8920370748</v>
+        <v>403840.5463236904</v>
       </c>
       <c r="R8" t="n">
-        <v>6793787.235077787</v>
+        <v>6794038.864283022</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97650298</v>
+        <v>97650301</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1511,25 +1511,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>403840.5463236904</v>
+        <v>403960.8920370748</v>
       </c>
       <c r="R9" t="n">
-        <v>6794038.864283022</v>
+        <v>6793787.235077787</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 41607-2020.xlsx
+++ b/artfynd/A 41607-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97650292</v>
+        <v>97650299</v>
       </c>
       <c r="B2" t="n">
-        <v>5135</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>403705.050704394</v>
+        <v>403880.3826524244</v>
       </c>
       <c r="R2" t="n">
-        <v>6794737.908215457</v>
+        <v>6794050.283030285</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97650293</v>
+        <v>97650294</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>90676</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>403710.6419448711</v>
+        <v>403863.9880530759</v>
       </c>
       <c r="R3" t="n">
-        <v>6794695.894706693</v>
+        <v>6794102.706117956</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97650291</v>
+        <v>97650292</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>403714.9324539425</v>
+        <v>403705.050704394</v>
       </c>
       <c r="R4" t="n">
-        <v>6794746.778207967</v>
+        <v>6794737.908215457</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97650299</v>
+        <v>97650293</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>403880.3826524244</v>
+        <v>403710.6419448711</v>
       </c>
       <c r="R5" t="n">
-        <v>6794050.283030285</v>
+        <v>6794695.894706693</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97650294</v>
+        <v>97650291</v>
       </c>
       <c r="B6" t="n">
-        <v>90676</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5966</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>403863.9880530759</v>
+        <v>403714.9324539425</v>
       </c>
       <c r="R6" t="n">
-        <v>6794102.706117956</v>
+        <v>6794746.778207967</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97650298</v>
+        <v>97650301</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,25 +1394,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>403840.5463236904</v>
+        <v>403960.8920370748</v>
       </c>
       <c r="R8" t="n">
-        <v>6794038.864283022</v>
+        <v>6793787.235077787</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97650301</v>
+        <v>97650298</v>
       </c>
       <c r="B9" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1511,25 +1511,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>403960.8920370748</v>
+        <v>403840.5463236904</v>
       </c>
       <c r="R9" t="n">
-        <v>6793787.235077787</v>
+        <v>6794038.864283022</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
